--- a/emptyScreen.xlsx
+++ b/emptyScreen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\NRF52840_WS2812B_BLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD39FC9-D2B0-4EFD-B2FB-647B6D8AEAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022DDBBF-8165-4E18-895A-1AD663F4BE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="2010" windowWidth="12510" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -51,6 +51,144 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -82,10 +220,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -366,15 +527,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:AR15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="AS11" sqref="AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -390,8 +551,35 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="4"/>
+      <c r="AO1">
+        <v>14</v>
+      </c>
+      <c r="AP1">
+        <v>14</v>
+      </c>
+      <c r="AQ1">
+        <v>14</v>
+      </c>
+      <c r="AR1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -407,8 +595,35 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="6"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="4"/>
+      <c r="AO2">
+        <v>12</v>
+      </c>
+      <c r="AP2">
+        <v>12</v>
+      </c>
+      <c r="AQ2">
+        <v>12</v>
+      </c>
+      <c r="AR2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -424,8 +639,35 @@
       <c r="M3" s="2"/>
       <c r="N3" s="1"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="6"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="4"/>
+      <c r="AO3">
+        <v>10</v>
+      </c>
+      <c r="AP3">
+        <v>10</v>
+      </c>
+      <c r="AQ3">
+        <v>10</v>
+      </c>
+      <c r="AR3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -441,8 +683,35 @@
       <c r="M4" s="2"/>
       <c r="N4" s="1"/>
       <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="6"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="4"/>
+      <c r="AO4">
+        <v>8</v>
+      </c>
+      <c r="AP4">
+        <v>8</v>
+      </c>
+      <c r="AQ4">
+        <v>8</v>
+      </c>
+      <c r="AR4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -458,8 +727,35 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="6"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="4"/>
+      <c r="AO5">
+        <v>6</v>
+      </c>
+      <c r="AP5">
+        <v>6</v>
+      </c>
+      <c r="AQ5">
+        <v>6</v>
+      </c>
+      <c r="AR5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -475,8 +771,35 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="6"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="4"/>
+      <c r="AO6">
+        <v>4</v>
+      </c>
+      <c r="AP6">
+        <v>4</v>
+      </c>
+      <c r="AQ6">
+        <v>4</v>
+      </c>
+      <c r="AR6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -492,8 +815,35 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="6"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="4"/>
+      <c r="AO7">
+        <v>2</v>
+      </c>
+      <c r="AP7">
+        <v>2</v>
+      </c>
+      <c r="AQ7">
+        <v>2</v>
+      </c>
+      <c r="AR7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -509,8 +859,26 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="6"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="4"/>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -526,8 +894,23 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="6"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="4"/>
+    </row>
+    <row r="10" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -543,8 +926,23 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="6"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="4"/>
+    </row>
+    <row r="11" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -560,8 +958,23 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="6"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="4"/>
+    </row>
+    <row r="12" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -577,8 +990,23 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W12" s="6"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="4"/>
+    </row>
+    <row r="13" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -594,8 +1022,23 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="6"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="4"/>
+    </row>
+    <row r="14" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -611,8 +1054,23 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="6"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="4"/>
+    </row>
+    <row r="15" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -628,6 +1086,21 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/emptyScreen.xlsx
+++ b/emptyScreen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\NRF52840_WS2812B_BLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022DDBBF-8165-4E18-895A-1AD663F4BE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B6BFC2-1B20-46DD-BD48-86F024369266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -247,6 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -527,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR15"/>
+  <dimension ref="A1:AR31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS11" sqref="AS11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1102,6 +1103,261 @@
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
     </row>
+    <row r="17" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/emptyScreen.xlsx
+++ b/emptyScreen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\NRF52840_WS2812B_BLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B6BFC2-1B20-46DD-BD48-86F024369266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5607F0-A84E-4E43-85EB-DAAC97C5A070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:AR31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
